--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="8555"/>
+    <workbookView windowWidth="22188" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="229">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -848,43 +848,31 @@
     <t xml:space="preserve">Марина руководит отделом, в котором работает ее дед Иван, айтишник Дима и секретарша Вера. Отец Марины, Сергей, руководит всей фирмой. Дима занял в корпоративном турнире по теннису 1 место, </t>
   </si>
   <si>
-    <t>Иерархическая:</t>
-  </si>
-  <si>
-    <t>Компания</t>
+    <t>Иван  второе, Марина - третье, Сергей - четвертое (больше никто не участвовал). Постройте иерархическую и сетевую модели этих данных.</t>
+  </si>
+  <si>
+    <t>В Компании:</t>
+  </si>
+  <si>
+    <t>В Семье:</t>
+  </si>
+  <si>
+    <t>Турнир:</t>
   </si>
   <si>
     <t>Сетевая:</t>
   </si>
   <si>
-    <t>Иван  второе, Марина - третье, Сергей - четвертое (больше никто не участвовал). Постройте иерархическую и сетевую модели этих данных.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  └── Сергей (Руководитель)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         └── Отдел Марины</t>
+    <t>(предположим, что Иван, отец Сергея)</t>
   </si>
   <si>
     <t>Какие из приведенных ниже баз данных соответствуют SQL модели данных, но не соответствуют истинной реляционной модели данных?</t>
   </si>
   <si>
-    <t xml:space="preserve">                └── Марина (Руководитель отдела)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       └── Дима (айтишник)</t>
-  </si>
-  <si>
     <t>а)</t>
   </si>
   <si>
-    <t xml:space="preserve">                       └── Вера (секретарша)</t>
-  </si>
-  <si>
     <t>ы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       └── Иван (дед Марины)</t>
   </si>
   <si>
     <t>п</t>
@@ -1326,7 +1314,7 @@
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="182" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,13 +1344,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,18 +1356,6 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1932,19 +1901,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1953,131 +1934,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2092,28 +2061,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2121,17 +2089,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2147,12 +2118,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2221,14 +2188,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>183927</xdr:rowOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2245,8 +2212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275590" y="32390080"/>
-          <a:ext cx="3976370" cy="1298575"/>
+          <a:off x="275590" y="36047680"/>
+          <a:ext cx="3976370" cy="1297940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,13 +2230,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>242570</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2287,7 +2254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242570" y="43037125"/>
+          <a:off x="242570" y="46694725"/>
           <a:ext cx="4178300" cy="2259965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2305,13 +2272,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>732155</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>480695</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2329,7 +2296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4549775" y="43126025"/>
+          <a:off x="4549775" y="46783625"/>
           <a:ext cx="4724400" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2347,13 +2314,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>39370</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2371,7 +2338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10195560" y="43197780"/>
+          <a:off x="10195560" y="46855380"/>
           <a:ext cx="3742690" cy="2005330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2389,13 +2356,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>648335</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>179705</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2413,8 +2380,176 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14547215" y="43493690"/>
+          <a:off x="14547215" y="47151290"/>
           <a:ext cx="5200650" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>620395</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Изображение 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306195" y="12903200"/>
+          <a:ext cx="5153025" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Изображение 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9497695" y="13007340"/>
+          <a:ext cx="2038350" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>458470</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Изображение 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13267690" y="12937490"/>
+          <a:ext cx="2438400" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Изображение 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17813020" y="12778105"/>
+          <a:ext cx="10182225" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2688,10 +2823,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:BG270"/>
+  <dimension ref="A2:BG289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="V235" sqref="V235"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="K283" sqref="K283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3079,25 +3214,25 @@
       <c r="K21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="17">
-        <v>2</v>
-      </c>
-      <c r="N21" s="18">
+      <c r="L21" s="16">
+        <v>2</v>
+      </c>
+      <c r="N21" s="17">
         <v>6</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="16">
         <v>89</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="17">
         <v>5</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3111,25 +3246,25 @@
       <c r="K22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>7</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <v>7</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="16">
         <v>78</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="T22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="22">
         <v>6</v>
       </c>
     </row>
@@ -3143,47 +3278,47 @@
       <c r="K23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="16">
         <v>89</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <v>45</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="16">
         <v>5</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="22">
         <v>4</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="U23" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="14:18">
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <v>32</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="17" t="s">
+      <c r="Q24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="16">
         <v>890</v>
       </c>
     </row>
     <row r="25" spans="14:15">
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>109</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3343,7 +3478,7 @@
       <c r="I35" s="9">
         <v>3</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -3376,10 +3511,10 @@
       <c r="AF35" s="9">
         <v>14</v>
       </c>
-      <c r="AI35" s="26" t="s">
+      <c r="AI35" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AJ35" s="26" t="s">
+      <c r="AJ35" s="25" t="s">
         <v>49</v>
       </c>
       <c r="AK35" s="9" t="s">
@@ -3388,7 +3523,7 @@
       <c r="AL35" s="9">
         <v>4</v>
       </c>
-      <c r="AM35" s="19" t="s">
+      <c r="AM35" s="18" t="s">
         <v>46</v>
       </c>
       <c r="AN35" s="9" t="s">
@@ -3578,25 +3713,25 @@
       <c r="O43" t="s">
         <v>53</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R43" s="24" t="s">
+      <c r="R43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="24">
-        <v>1</v>
-      </c>
-      <c r="T43" s="24" t="s">
+      <c r="S43" s="23">
+        <v>1</v>
+      </c>
+      <c r="T43" s="23" t="s">
         <v>9</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AC43" s="24" t="s">
+      <c r="AC43" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD43" s="24">
+      <c r="AD43" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3611,22 +3746,22 @@
       <c r="K44" s="9">
         <v>1</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="24">
-        <v>2</v>
-      </c>
-      <c r="T44" s="24" t="s">
+      <c r="S44" s="23">
+        <v>2</v>
+      </c>
+      <c r="T44" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC44" s="24" t="s">
+      <c r="AC44" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD44" s="24">
+      <c r="AD44" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3643,34 +3778,34 @@
       <c r="I45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K45" s="9">
         <v>2</v>
       </c>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="24" t="s">
+      <c r="Q45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="24" t="s">
+      <c r="R45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="23">
         <v>3</v>
       </c>
-      <c r="T45" s="24" t="s">
+      <c r="T45" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC45" s="24" t="s">
+      <c r="AC45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD45" s="24">
+      <c r="AD45" s="23">
         <v>3</v>
       </c>
     </row>
@@ -3684,42 +3819,42 @@
       <c r="K46" s="9">
         <v>3</v>
       </c>
-      <c r="Q46" s="25" t="s">
+      <c r="Q46" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="R46" s="25" t="s">
+      <c r="R46" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="S46" s="24">
-        <v>1</v>
-      </c>
-      <c r="T46" s="24" t="s">
+      <c r="S46" s="23">
+        <v>1</v>
+      </c>
+      <c r="T46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC46" s="25" t="s">
+      <c r="AC46" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AD46" s="24">
+      <c r="AD46" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="17:30">
-      <c r="Q47" s="25" t="s">
+      <c r="Q47" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="24">
-        <v>2</v>
-      </c>
-      <c r="T47" s="24" t="s">
+      <c r="S47" s="23">
+        <v>2</v>
+      </c>
+      <c r="T47" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC47" s="25" t="s">
+      <c r="AC47" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AD47" s="24">
+      <c r="AD47" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3727,42 +3862,42 @@
       <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q48" s="25" t="s">
+      <c r="Q48" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="S48" s="24">
+      <c r="S48" s="23">
         <v>3</v>
       </c>
-      <c r="T48" s="24" t="s">
+      <c r="T48" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC48" s="25" t="s">
+      <c r="AC48" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AD48" s="24">
+      <c r="AD48" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="17:30">
-      <c r="Q49" s="25" t="s">
+      <c r="Q49" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="R49" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="S49" s="24">
-        <v>1</v>
-      </c>
-      <c r="T49" s="24" t="s">
+      <c r="S49" s="23">
+        <v>1</v>
+      </c>
+      <c r="T49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC49" s="25" t="s">
+      <c r="AC49" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD49" s="24">
+      <c r="AD49" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3770,42 +3905,42 @@
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q50" s="25" t="s">
+      <c r="Q50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R50" s="25" t="s">
+      <c r="R50" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="S50" s="24">
-        <v>2</v>
-      </c>
-      <c r="T50" s="24" t="s">
+      <c r="S50" s="23">
+        <v>2</v>
+      </c>
+      <c r="T50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC50" s="25" t="s">
+      <c r="AC50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD50" s="24">
+      <c r="AD50" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="17:30">
-      <c r="Q51" s="25" t="s">
+      <c r="Q51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R51" s="25" t="s">
+      <c r="R51" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="S51" s="24">
+      <c r="S51" s="23">
         <v>3</v>
       </c>
-      <c r="T51" s="24" t="s">
+      <c r="T51" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC51" s="25" t="s">
+      <c r="AC51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD51" s="24">
+      <c r="AD51" s="23">
         <v>3</v>
       </c>
     </row>
@@ -3884,7 +4019,7 @@
       <c r="I55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K55" s="9">
@@ -3989,7 +4124,7 @@
       <c r="M62" t="s">
         <v>76</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="21">
         <v>12</v>
       </c>
     </row>
@@ -4006,13 +4141,13 @@
       <c r="I63" s="9">
         <v>11</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K63" s="9">
         <v>11</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="21">
         <v>86</v>
       </c>
     </row>
@@ -4044,3499 +4179,3522 @@
       </c>
     </row>
     <row r="67" spans="8:9">
-      <c r="H67" s="27">
+      <c r="H67" s="26">
         <v>56</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="26">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68">
+    <row r="68" spans="1:19">
+      <c r="A68" s="1">
         <v>7</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X68" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="72" spans="2:25">
+      <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="K72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="2:27">
-      <c r="B69" s="2" t="s">
+      <c r="R72" t="s">
         <v>81</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="Y72" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="27:27">
-      <c r="AA70" t="s">
+    <row r="73" spans="11:11">
+      <c r="K73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="1">
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
         <v>8</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="AA71" t="s">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="7:13">
+      <c r="G93" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="4:27">
-      <c r="D72" s="11"/>
-      <c r="AA72" t="s">
+      <c r="I93" s="9">
+        <v>1</v>
+      </c>
+      <c r="J93" s="9">
+        <v>7</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M93" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13">
+      <c r="I94" s="9">
+        <v>2</v>
+      </c>
+      <c r="J94" s="9">
+        <v>8</v>
+      </c>
+      <c r="L94" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="7:27">
-      <c r="G73" t="s">
+      <c r="M94" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13">
+      <c r="I95" s="30">
+        <v>3</v>
+      </c>
+      <c r="J95" s="30">
+        <v>9</v>
+      </c>
+      <c r="L95" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I73" s="9">
-        <v>1</v>
-      </c>
-      <c r="J73" s="9">
+      <c r="M95" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13">
+      <c r="I96" s="30">
+        <v>3</v>
+      </c>
+      <c r="J96" s="30">
+        <v>9</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M96" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="7:19">
+      <c r="G98" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="9">
+        <v>67</v>
+      </c>
+      <c r="J98" s="9">
+        <v>67</v>
+      </c>
+      <c r="L98" s="9">
+        <v>1</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>91</v>
+      </c>
+      <c r="R98" s="27"/>
+      <c r="S98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="9:13">
+      <c r="I99" s="30">
+        <v>2</v>
+      </c>
+      <c r="J99" s="30">
         <v>7</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M73" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="9:27">
-      <c r="I74" s="9">
-        <v>2</v>
-      </c>
-      <c r="J74" s="9">
+      <c r="L99" s="9">
+        <v>2</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="9:13">
+      <c r="I100" s="9">
+        <v>87</v>
+      </c>
+      <c r="J100" s="9">
+        <v>65</v>
+      </c>
+      <c r="L100" s="9">
+        <v>3</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13">
+      <c r="I101" s="30">
+        <v>2</v>
+      </c>
+      <c r="J101" s="30">
+        <v>7</v>
+      </c>
+      <c r="L101" s="9">
+        <v>4</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="7:13">
+      <c r="G103" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I103" s="17">
+        <v>9</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K103" s="31"/>
+      <c r="L103" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M103" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13">
+      <c r="I104" s="17">
         <v>8</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="J104" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K104" s="31"/>
+      <c r="L104" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13">
+      <c r="I105" s="17">
+        <v>45</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K105" s="31"/>
+      <c r="L105" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M105" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13">
+      <c r="I106" s="17">
+        <v>4</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K106" s="31"/>
+      <c r="L106" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M106" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="7:13">
+      <c r="G108" t="s">
+        <v>98</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13">
+      <c r="I109" s="9">
+        <v>2</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L109" s="9">
+        <v>2</v>
+      </c>
+      <c r="M109" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13">
+      <c r="I110" s="9">
+        <v>78</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" s="9">
+        <v>3</v>
+      </c>
+      <c r="M110" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13">
+      <c r="I111" s="9">
+        <v>4</v>
+      </c>
+      <c r="J111" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L111" s="9">
+        <v>4</v>
+      </c>
+      <c r="M111" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>9</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="4:23">
+      <c r="D115" s="11"/>
+      <c r="I115" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P115" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q115" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R115" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S115" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T115" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U115" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="9:21">
+      <c r="I116" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L116" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M116" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q116" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R116" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S116" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="T116" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U116" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="9:21">
+      <c r="I117" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K117" s="9">
+        <v>1</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M117" s="32">
+        <v>36892</v>
+      </c>
+      <c r="Q117" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R117" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S117" s="9">
+        <v>1</v>
+      </c>
+      <c r="T117" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U117" s="32">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="118" spans="9:21">
+      <c r="I118" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K118" s="9">
+        <v>2</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M118" s="32">
+        <v>39815</v>
+      </c>
+      <c r="Q118" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="R118" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="S118" s="9">
+        <v>2</v>
+      </c>
+      <c r="T118" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U118" s="32">
+        <v>39815</v>
+      </c>
+    </row>
+    <row r="119" spans="9:21">
+      <c r="I119" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K119" s="9">
+        <v>3</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M119" s="32">
+        <v>43833</v>
+      </c>
+      <c r="Q119" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="R119" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S119" s="9">
+        <v>3</v>
+      </c>
+      <c r="T119" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U119" s="32">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="120" spans="9:21">
+      <c r="I120" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K120" s="9">
+        <v>1</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M120" s="32">
+        <v>36892</v>
+      </c>
+      <c r="Q120" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="R120" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S120" s="9">
+        <v>1</v>
+      </c>
+      <c r="T120" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="U120" s="32">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="121" spans="9:21">
+      <c r="I121" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K121" s="9">
+        <v>3</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M121" s="32">
+        <v>42374</v>
+      </c>
+      <c r="Q121" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="R121" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S121" s="9">
+        <v>3</v>
+      </c>
+      <c r="T121" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U121" s="32">
+        <v>42374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1">
+        <v>10</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1"/>
+      <c r="B125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="28"/>
+    </row>
+    <row r="127" spans="4:15">
+      <c r="D127" s="29"/>
+      <c r="F127" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M127" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N127" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O127" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="8:15">
+      <c r="H128" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N128" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O128" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="8:15">
+      <c r="H129" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J129" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="8:15">
+      <c r="H130" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J130" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N130" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="4:11">
+      <c r="D131" s="29"/>
+      <c r="H131" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J131" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11">
+      <c r="H132" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J132" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="8:20">
+      <c r="H133" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J133" s="9">
+        <v>9000</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S133" s="41"/>
+      <c r="T133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="6:15">
+      <c r="F135" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="M74" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="9:13">
-      <c r="I75" s="33">
-        <v>3</v>
-      </c>
-      <c r="J75" s="33">
-        <v>9</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M75" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="9:13">
-      <c r="I76" s="33">
-        <v>3</v>
-      </c>
-      <c r="J76" s="33">
-        <v>9</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M76" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="7:19">
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
-      <c r="I78" s="9">
-        <v>67</v>
-      </c>
-      <c r="J78" s="9">
-        <v>67</v>
-      </c>
-      <c r="L78" s="9">
-        <v>1</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q78" t="s">
+      <c r="H135" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K135" s="38"/>
+      <c r="M135" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N135" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O135" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="8:15">
+      <c r="H136" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K136" s="38"/>
+      <c r="M136" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N136" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O136" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="8:15">
+      <c r="H137" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K137" s="39"/>
+      <c r="M137" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="8:15">
+      <c r="H138" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K138" s="39"/>
+      <c r="M138" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="8:11">
+      <c r="H139" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K139" s="39"/>
+    </row>
+    <row r="140" spans="8:11">
+      <c r="H140" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K140" s="39"/>
+    </row>
+    <row r="141" spans="8:11">
+      <c r="H141" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K141" s="39"/>
+    </row>
+    <row r="143" spans="6:15">
+      <c r="F143" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R78" s="28"/>
-      <c r="S78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="9:13">
-      <c r="I79" s="33">
-        <v>2</v>
-      </c>
-      <c r="J79" s="33">
-        <v>7</v>
-      </c>
-      <c r="L79" s="9">
-        <v>2</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="9:13">
-      <c r="I80" s="9">
-        <v>87</v>
-      </c>
-      <c r="J80" s="9">
+      <c r="H143" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L80" s="9">
-        <v>3</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="9:13">
-      <c r="I81" s="33">
-        <v>2</v>
-      </c>
-      <c r="J81" s="33">
-        <v>7</v>
-      </c>
-      <c r="L81" s="9">
-        <v>4</v>
-      </c>
-      <c r="M81" s="9" t="s">
+      <c r="J143" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M143" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N143" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O143" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="8:15">
+      <c r="H144" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K144" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N144" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O144" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="8:15">
+      <c r="H145" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J145" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="8:15">
+      <c r="H146" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J146" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="8:11">
+      <c r="H147" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J147" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="8:11">
+      <c r="H148" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J148" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="8:11">
+      <c r="H149" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J149" s="9">
+        <v>9000</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="6:15">
+      <c r="F151" s="37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="7:13">
-      <c r="G83" s="28" t="s">
+      <c r="H151" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M151" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N151" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O151" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="8:15">
+      <c r="H152" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N152" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O152" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="8:15">
+      <c r="H153" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J153" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N153" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O153" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="8:15">
+      <c r="H154" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J154" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K154" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I83" s="18">
-        <v>9</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K83" s="32"/>
-      <c r="L83" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M83" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="9:13">
-      <c r="I84" s="18">
-        <v>8</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M84" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="9:13">
-      <c r="I85" s="18">
-        <v>45</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K85" s="32"/>
-      <c r="L85" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="M85" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="9:13">
-      <c r="I86" s="18">
-        <v>4</v>
-      </c>
-      <c r="J86" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K86" s="32"/>
-      <c r="L86" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M86" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="7:13">
-      <c r="G88" t="s">
+      <c r="M154" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N154" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O154" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11">
+      <c r="H155" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J155" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11">
+      <c r="H156" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J156" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11">
+      <c r="H157" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J157" s="9">
+        <v>9000</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="6:15">
+      <c r="F159" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J159" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I88" s="9">
-        <v>1</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L88" s="9">
-        <v>1</v>
-      </c>
-      <c r="M88" s="9">
-        <v>9876</v>
-      </c>
-    </row>
-    <row r="89" spans="9:13">
-      <c r="I89" s="9">
-        <v>2</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L89" s="9">
-        <v>2</v>
-      </c>
-      <c r="M89" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="9:13">
-      <c r="I90" s="9">
-        <v>78</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L90" s="9">
-        <v>3</v>
-      </c>
-      <c r="M90" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="9:13">
-      <c r="I91" s="9">
-        <v>4</v>
-      </c>
-      <c r="J91" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L91" s="9">
-        <v>4</v>
-      </c>
-      <c r="M91" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="1">
-        <v>9</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="4:23">
-      <c r="D95" s="11"/>
-      <c r="I95" s="12" t="s">
+      <c r="K159" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M159" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="N159" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="O159" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="8:15">
+      <c r="H160" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K160" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M160" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N160" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="L95" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P95" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q95" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="R95" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="S95" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="T95" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="U95" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="W95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="9:21">
-      <c r="I96" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q96" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="S96" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="T96" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="U96" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="9:21">
-      <c r="I97" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K97" s="9">
-        <v>1</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M97" s="34">
-        <v>36892</v>
-      </c>
-      <c r="Q97" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="R97" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="S97" s="9">
-        <v>1</v>
-      </c>
-      <c r="T97" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="U97" s="34">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="98" spans="9:21">
-      <c r="I98" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K98" s="9">
-        <v>2</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M98" s="34">
-        <v>39815</v>
-      </c>
-      <c r="Q98" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="S98" s="9">
-        <v>2</v>
-      </c>
-      <c r="T98" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="U98" s="34">
-        <v>39815</v>
-      </c>
-    </row>
-    <row r="99" spans="9:21">
-      <c r="I99" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K99" s="9">
-        <v>3</v>
-      </c>
-      <c r="L99" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M99" s="34">
-        <v>43833</v>
-      </c>
-      <c r="Q99" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="R99" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="S99" s="9">
-        <v>3</v>
-      </c>
-      <c r="T99" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="U99" s="34">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="100" spans="9:21">
-      <c r="I100" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K100" s="9">
-        <v>1</v>
-      </c>
-      <c r="L100" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M100" s="34">
-        <v>36892</v>
-      </c>
-      <c r="Q100" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="R100" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="S100" s="9">
-        <v>1</v>
-      </c>
-      <c r="T100" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="U100" s="34">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="101" spans="9:21">
-      <c r="I101" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K101" s="9">
-        <v>3</v>
-      </c>
-      <c r="L101" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M101" s="34">
-        <v>42374</v>
-      </c>
-      <c r="Q101" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="R101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="S101" s="9">
-        <v>3</v>
-      </c>
-      <c r="T101" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="U101" s="34">
-        <v>42374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1">
-        <v>10</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1"/>
-      <c r="B105" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="4:15">
-      <c r="D107" s="30"/>
-      <c r="F107" t="s">
-        <v>87</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M107" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N107" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="O107" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="8:15">
-      <c r="H108" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I108" s="12" t="s">
+      <c r="O160" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J108" s="12" t="s">
+    </row>
+    <row r="161" spans="8:15">
+      <c r="H161" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="I161" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M108" s="12" t="s">
+      <c r="J161" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M161" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="N108" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O108" s="35" t="s">
+      <c r="N161" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="109" spans="8:15">
-      <c r="H109" s="9" t="s">
+      <c r="O161" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="8:15">
+      <c r="H162" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I162" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J162" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M162" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J109" s="9">
+      <c r="N162" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O162" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11">
+      <c r="H163" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J163" s="9">
         <v>10000</v>
       </c>
-      <c r="K109" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N109" s="9" t="s">
+      <c r="K163" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="8:11">
+      <c r="H164" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I164" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O109" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="8:15">
-      <c r="H110" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J110" s="9">
-        <v>20000</v>
-      </c>
-      <c r="K110" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M110" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N110" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O110" s="9" t="s">
+      <c r="J164" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="8:11">
+      <c r="H165" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="111" spans="4:11">
-      <c r="D111" s="30"/>
-      <c r="H111" s="9" t="s">
+      <c r="I165" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I111" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J111" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K111" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11">
-      <c r="H112" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J112" s="9">
-        <v>15000</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="8:20">
-      <c r="H113" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J113" s="9">
+      <c r="J165" s="9">
         <v>9000</v>
       </c>
-      <c r="K113" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="S113" s="40"/>
-      <c r="T113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="6:15">
-      <c r="F115" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K115" s="36"/>
-      <c r="M115" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N115" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="O115" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="8:15">
-      <c r="H116" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K116" s="36"/>
-      <c r="M116" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N116" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O116" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="8:15">
-      <c r="H117" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K117" s="37"/>
-      <c r="M117" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O117" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="8:15">
-      <c r="H118" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K118" s="37"/>
-      <c r="M118" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O118" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K119" s="37"/>
-    </row>
-    <row r="120" spans="8:11">
-      <c r="H120" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K120" s="37"/>
-    </row>
-    <row r="121" spans="8:11">
-      <c r="H121" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K121" s="37"/>
-    </row>
-    <row r="123" spans="6:15">
-      <c r="F123" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M123" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N123" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="O123" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="8:15">
-      <c r="H124" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J124" s="12" t="s">
+      <c r="K165" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K124" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M124" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N124" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O124" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="8:15">
-      <c r="H125" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J125" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K125" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M125" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N125" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O125" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="8:15">
-      <c r="H126" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J126" s="9">
-        <v>20000</v>
-      </c>
-      <c r="K126" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M126" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N126" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O126" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="8:11">
-      <c r="H127" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J127" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K127" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="8:11">
-      <c r="H128" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J128" s="9">
-        <v>15000</v>
-      </c>
-      <c r="K128" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="8:11">
-      <c r="H129" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J129" s="9">
-        <v>9000</v>
-      </c>
-      <c r="K129" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="6:15">
-      <c r="F131" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M131" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N131" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="O131" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="8:15">
-      <c r="H132" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J132" s="12" t="s">
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167" s="1">
+        <v>11</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K132" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M132" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N132" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O132" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="8:15">
-      <c r="H133" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J133" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K133" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M133" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N133" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="8:15">
-      <c r="H134" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J134" s="9">
-        <v>20000</v>
-      </c>
-      <c r="K134" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M134" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O134" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="8:11">
-      <c r="H135" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J135" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K135" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="8:11">
-      <c r="H136" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J136" s="9">
-        <v>15000</v>
-      </c>
-      <c r="K136" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="8:11">
-      <c r="H137" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J137" s="9">
-        <v>9000</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="6:15">
-      <c r="F139" s="31" t="s">
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="A168" s="1"/>
+      <c r="B168" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H139" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K139" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M139" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N139" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="O139" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="140" spans="8:15">
-      <c r="H140" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K140" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M140" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N140" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O140" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="141" spans="8:15">
-      <c r="H141" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J141" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K141" s="9" t="s">
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="8:12">
+      <c r="H170" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="M141" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N141" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O141" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="8:15">
-      <c r="H142" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J142" s="9">
-        <v>20000</v>
-      </c>
-      <c r="K142" s="9" t="s">
+      <c r="L170" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="8:12">
+      <c r="H171" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="M142" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O142" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="8:11">
-      <c r="H143" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J143" s="9">
-        <v>10000</v>
-      </c>
-      <c r="K143" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="8:11">
-      <c r="H144" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J144" s="9">
-        <v>15000</v>
-      </c>
-      <c r="K144" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="8:11">
-      <c r="H145" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J145" s="9">
-        <v>9000</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18">
-      <c r="A147" s="1">
-        <v>11</v>
-      </c>
-      <c r="B147" s="3" t="s">
+      <c r="L171" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-    </row>
-    <row r="148" spans="1:18">
-      <c r="A148" s="1"/>
-      <c r="B148" s="3" t="s">
+    </row>
+    <row r="172" spans="6:12">
+      <c r="F172" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" s="11"/>
-    </row>
-    <row r="150" spans="8:12">
-      <c r="H150" s="12" t="s">
+      <c r="G172" t="s">
+        <v>44</v>
+      </c>
+      <c r="H172" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L150" s="47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="151" spans="8:12">
-      <c r="H151" s="9" t="s">
+      <c r="J172" t="s">
         <v>158</v>
       </c>
-      <c r="L151" s="22" t="s">
+      <c r="K172" t="s">
+        <v>44</v>
+      </c>
+      <c r="L172" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="6:12">
-      <c r="F152" t="s">
+    <row r="173" spans="8:12">
+      <c r="H173" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G152" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="9" t="s">
+      <c r="L173" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J152" t="s">
+    </row>
+    <row r="174" spans="12:12">
+      <c r="L174" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="K152" t="s">
-        <v>44</v>
-      </c>
-      <c r="L152" s="22" t="s">
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>12</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="8:12">
-      <c r="H153" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L153" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="12:12">
-      <c r="L154" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="1">
-        <v>12</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="4:52">
-      <c r="D156" s="1"/>
-      <c r="H156" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I156" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M156" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="N156" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O156" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="R156" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="S156" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="T156" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="V156" t="s">
-        <v>174</v>
-      </c>
-      <c r="X156" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y156" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z156" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA156" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB156" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD156" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF156" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG156" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH156" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI156" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ156" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL156" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN156" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO156" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP156" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ156" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR156" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT156" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV156" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW156" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX156" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY156" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ156" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="8:52">
-      <c r="H157" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I157" s="9">
-        <v>15000</v>
-      </c>
-      <c r="J157" s="9">
-        <v>1</v>
-      </c>
-      <c r="M157" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N157" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O157" s="9">
-        <v>2</v>
-      </c>
-      <c r="R157" s="9">
-        <v>1</v>
-      </c>
-      <c r="S157" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="T157" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="X157" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y157" s="9">
-        <v>15000</v>
-      </c>
-      <c r="Z157" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA157" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB157" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF157" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG157" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH157" s="9">
-        <v>2</v>
-      </c>
-      <c r="AI157" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ157" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN157" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO157" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP157" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ157" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR157" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV157" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW157" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX157" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY157" s="9" t="str">
-        <f>IF(AX157=2,"4*","5*")</f>
-        <v>4*</v>
-      </c>
-      <c r="AZ157" s="9" t="str">
-        <f>IF(AY157="4*","Бриз","Волна")</f>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="158" spans="6:52">
-      <c r="F158" t="s">
-        <v>43</v>
-      </c>
-      <c r="G158" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I158" s="9">
-        <v>30000</v>
-      </c>
-      <c r="J158" s="9">
-        <v>1</v>
-      </c>
-      <c r="L158" t="s">
-        <v>187</v>
-      </c>
-      <c r="M158" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O158" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>189</v>
-      </c>
-      <c r="R158" s="9">
-        <v>2</v>
-      </c>
-      <c r="S158" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="T158" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="X158" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y158" s="9">
-        <v>30000</v>
-      </c>
-      <c r="Z158" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA158" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB158" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF158" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG158" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH158" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI158" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ158" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN158" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO158" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP158" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ158" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR158" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV158" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW158" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX158" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY158" s="9" t="str">
-        <f t="shared" ref="AY158:AY168" si="0">IF(AX158=2,"4*","5*")</f>
-        <v>5*</v>
-      </c>
-      <c r="AZ158" s="9" t="str">
-        <f t="shared" ref="AZ158:AZ168" si="1">IF(AY158="4*","Бриз","Волна")</f>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="159" spans="8:52">
-      <c r="H159" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I159" s="9">
-        <v>60000</v>
-      </c>
-      <c r="J159" s="9">
-        <v>1</v>
-      </c>
-      <c r="M159" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="N159" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O159" s="9">
-        <v>2</v>
-      </c>
-      <c r="X159" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y159" s="9">
-        <v>60000</v>
-      </c>
-      <c r="Z159" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA159" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB159" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF159" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG159" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH159" s="9">
-        <v>2</v>
-      </c>
-      <c r="AI159" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ159" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN159" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO159" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP159" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ159" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR159" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV159" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW159" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX159" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY159" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4*</v>
-      </c>
-      <c r="AZ159" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="160" spans="8:52">
-      <c r="H160" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I160" s="9">
-        <v>17000</v>
-      </c>
-      <c r="J160" s="9">
-        <v>1</v>
-      </c>
-      <c r="M160" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N160" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="O160" s="9">
-        <v>1</v>
-      </c>
-      <c r="X160" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y160" s="9">
-        <v>17000</v>
-      </c>
-      <c r="Z160" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA160" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB160" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF160" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG160" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH160" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI160" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ160" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN160" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO160" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP160" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ160" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR160" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV160" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW160" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX160" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY160" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>5*</v>
-      </c>
-      <c r="AZ160" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="161" spans="8:52">
-      <c r="H161" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I161" s="9">
-        <v>23000</v>
-      </c>
-      <c r="J161" s="9">
-        <v>1</v>
-      </c>
-      <c r="M161" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N161" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="O161" s="9">
-        <v>1</v>
-      </c>
-      <c r="R161" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="S161" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="X161" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y161" s="9">
-        <v>23000</v>
-      </c>
-      <c r="Z161" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA161" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB161" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF161" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG161" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH161" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI161" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ161" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN161" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO161" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP161" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ161" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR161" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV161" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW161" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX161" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY161" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>5*</v>
-      </c>
-      <c r="AZ161" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="162" spans="8:52">
-      <c r="H162" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I162" s="9">
-        <v>25000</v>
-      </c>
-      <c r="J162" s="9">
-        <v>2</v>
-      </c>
-      <c r="M162" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="N162" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="O162" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>197</v>
-      </c>
-      <c r="R162" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="S162" s="48">
-        <v>45627</v>
-      </c>
-      <c r="X162" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y162" s="9">
-        <v>25000</v>
-      </c>
-      <c r="Z162" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA162" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB162" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF162" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG162" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH162" s="27">
-        <v>2</v>
-      </c>
-      <c r="AI162" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ162" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN162" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO162" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP162" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ162" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR162" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV162" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW162" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX162" s="27">
-        <v>2</v>
-      </c>
-      <c r="AY162" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4*</v>
-      </c>
-      <c r="AZ162" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="163" spans="8:52">
-      <c r="H163" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I163" s="9">
-        <v>32000</v>
-      </c>
-      <c r="J163" s="9">
-        <v>2</v>
-      </c>
-      <c r="R163" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="S163" s="48">
-        <v>45047</v>
-      </c>
-      <c r="X163" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y163" s="9">
-        <v>32000</v>
-      </c>
-      <c r="Z163" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA163" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB163" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN163" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO163" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP163" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ163" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR163" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV163" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW163" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX163" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY163" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>5*</v>
-      </c>
-      <c r="AZ163" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="164" spans="8:52">
-      <c r="H164" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I164" s="9">
-        <v>16000</v>
-      </c>
-      <c r="J164" s="9">
-        <v>2</v>
-      </c>
-      <c r="X164" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y164" s="9">
-        <v>16000</v>
-      </c>
-      <c r="Z164" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA164" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB164" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN164" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO164" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP164" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ164" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR164" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV164" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW164" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX164" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY164" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4*</v>
-      </c>
-      <c r="AZ164" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="165" spans="8:52">
-      <c r="H165" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I165" s="9">
-        <v>20000</v>
-      </c>
-      <c r="J165" s="9">
-        <v>2</v>
-      </c>
-      <c r="X165" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y165" s="9">
-        <v>20000</v>
-      </c>
-      <c r="Z165" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA165" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB165" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN165" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO165" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP165" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ165" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR165" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV165" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW165" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX165" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY165" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>5*</v>
-      </c>
-      <c r="AZ165" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="166" spans="8:52">
-      <c r="H166" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I166" s="9">
-        <v>40000</v>
-      </c>
-      <c r="J166" s="9">
-        <v>2</v>
-      </c>
-      <c r="X166" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y166" s="9">
-        <v>40000</v>
-      </c>
-      <c r="Z166" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA166" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB166" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN166" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO166" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP166" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ166" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR166" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV166" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW166" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX166" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY166" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4*</v>
-      </c>
-      <c r="AZ166" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="167" spans="40:52">
-      <c r="AN167" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO167" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP167" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ167" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR167" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV167" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW167" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX167" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY167" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4*</v>
-      </c>
-      <c r="AZ167" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Бриз</v>
-      </c>
-    </row>
-    <row r="168" spans="2:52">
-      <c r="B168" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN168" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO168" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP168" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ168" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR168" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV168" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW168" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX168" s="27">
-        <v>1</v>
-      </c>
-      <c r="AY168" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>5*</v>
-      </c>
-      <c r="AZ168" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>Волна</v>
-      </c>
-    </row>
-    <row r="169" spans="40:44">
-      <c r="AN169" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO169" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP169" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ169" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR169" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="3:44">
-      <c r="C170" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN170" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO170" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP170" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ170" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR170" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="3:44">
-      <c r="C171" t="s">
-        <v>93</v>
-      </c>
-      <c r="D171" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN171" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO171" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP171" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ171" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR171" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="3:44">
-      <c r="C172" t="s">
-        <v>99</v>
-      </c>
-      <c r="D172" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN172" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO172" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP172" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ172" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR172" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="3:44">
-      <c r="C173" t="s">
-        <v>102</v>
-      </c>
-      <c r="D173" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN173" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO173" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP173" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ173" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR173" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="4:44">
-      <c r="D174" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN174" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO174" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP174" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ174" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR174" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:44">
-      <c r="A175" s="1">
-        <v>13</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="AN175" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO175" s="9" t="s">
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="4:52">
+      <c r="D176" s="1"/>
+      <c r="H176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N176" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="O176" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R176" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="S176" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="T176" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V176" t="s">
+        <v>170</v>
+      </c>
+      <c r="X176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y176" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z176" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA176" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB176" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG176" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH176" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI176" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ176" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN176" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO176" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP176" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ176" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR176" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT176" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW176" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX176" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY176" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ176" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="8:52">
+      <c r="H177" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I177" s="9">
+        <v>15000</v>
+      </c>
+      <c r="J177" s="9">
+        <v>1</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O177" s="9">
+        <v>2</v>
+      </c>
+      <c r="R177" s="9">
+        <v>1</v>
+      </c>
+      <c r="S177" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T177" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="X177" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y177" s="9">
+        <v>15000</v>
+      </c>
+      <c r="Z177" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA177" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB177" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF177" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG177" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH177" s="9">
+        <v>2</v>
+      </c>
+      <c r="AI177" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ177" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN177" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO177" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP177" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ177" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR177" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="AP175" s="9" t="s">
+      <c r="AV177" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW177" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX177" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY177" s="9" t="str">
+        <f>IF(AX177=2,"4*","5*")</f>
+        <v>4*</v>
+      </c>
+      <c r="AZ177" s="9" t="str">
+        <f>IF(AY177="4*","Бриз","Волна")</f>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="178" spans="6:52">
+      <c r="F178" t="s">
+        <v>43</v>
+      </c>
+      <c r="G178" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178" s="9">
+        <v>30000</v>
+      </c>
+      <c r="J178" s="9">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
         <v>183</v>
       </c>
-      <c r="AQ175" s="9" t="s">
+      <c r="M178" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O178" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>185</v>
+      </c>
+      <c r="R178" s="9">
+        <v>2</v>
+      </c>
+      <c r="S178" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T178" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X178" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y178" s="9">
+        <v>30000</v>
+      </c>
+      <c r="Z178" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA178" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB178" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF178" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG178" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH178" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI178" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ178" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN178" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO178" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP178" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ178" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR178" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV178" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW178" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX178" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY178" s="9" t="str">
+        <f t="shared" ref="AY178:AY188" si="0">IF(AX178=2,"4*","5*")</f>
+        <v>5*</v>
+      </c>
+      <c r="AZ178" s="9" t="str">
+        <f t="shared" ref="AZ178:AZ188" si="1">IF(AY178="4*","Бриз","Волна")</f>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="179" spans="8:52">
+      <c r="H179" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I179" s="9">
+        <v>60000</v>
+      </c>
+      <c r="J179" s="9">
+        <v>1</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="N179" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O179" s="9">
+        <v>2</v>
+      </c>
+      <c r="X179" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y179" s="9">
+        <v>60000</v>
+      </c>
+      <c r="Z179" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA179" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB179" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF179" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG179" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH179" s="9">
+        <v>2</v>
+      </c>
+      <c r="AI179" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ179" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN179" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO179" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP179" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ179" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR179" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV179" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW179" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX179" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY179" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4*</v>
+      </c>
+      <c r="AZ179" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="180" spans="8:52">
+      <c r="H180" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I180" s="9">
+        <v>17000</v>
+      </c>
+      <c r="J180" s="9">
+        <v>1</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N180" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O180" s="9">
+        <v>1</v>
+      </c>
+      <c r="X180" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y180" s="9">
+        <v>17000</v>
+      </c>
+      <c r="Z180" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA180" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB180" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF180" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG180" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH180" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI180" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ180" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN180" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO180" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP180" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ180" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR180" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV180" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW180" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX180" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY180" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5*</v>
+      </c>
+      <c r="AZ180" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="181" spans="8:52">
+      <c r="H181" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I181" s="9">
+        <v>23000</v>
+      </c>
+      <c r="J181" s="9">
+        <v>1</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N181" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O181" s="9">
+        <v>1</v>
+      </c>
+      <c r="R181" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S181" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="X181" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y181" s="9">
+        <v>23000</v>
+      </c>
+      <c r="Z181" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA181" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB181" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF181" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG181" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH181" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI181" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ181" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN181" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO181" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP181" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ181" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR181" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV181" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW181" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX181" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY181" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5*</v>
+      </c>
+      <c r="AZ181" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="182" spans="8:52">
+      <c r="H182" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I182" s="9">
+        <v>25000</v>
+      </c>
+      <c r="J182" s="9">
+        <v>2</v>
+      </c>
+      <c r="M182" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N182" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O182" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q182" t="s">
         <v>193</v>
       </c>
-      <c r="AR175" s="49" t="s">
+      <c r="R182" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="S182" s="42">
+        <v>45627</v>
+      </c>
+      <c r="X182" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y182" s="9">
+        <v>25000</v>
+      </c>
+      <c r="Z182" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA182" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB182" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF182" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG182" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH182" s="26">
+        <v>2</v>
+      </c>
+      <c r="AI182" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ182" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN182" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO182" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP182" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ182" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR182" s="43" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="176" ht="18" customHeight="1" spans="1:44">
-      <c r="A176" s="1"/>
-      <c r="B176" s="3" t="s">
+      <c r="AV182" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW182" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX182" s="26">
+        <v>2</v>
+      </c>
+      <c r="AY182" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4*</v>
+      </c>
+      <c r="AZ182" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="183" spans="8:52">
+      <c r="H183" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I183" s="9">
+        <v>32000</v>
+      </c>
+      <c r="J183" s="9">
+        <v>2</v>
+      </c>
+      <c r="R183" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="S183" s="42">
+        <v>45047</v>
+      </c>
+      <c r="X183" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y183" s="9">
+        <v>32000</v>
+      </c>
+      <c r="Z183" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA183" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB183" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN183" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO183" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP183" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ183" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR183" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV183" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW183" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX183" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY183" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5*</v>
+      </c>
+      <c r="AZ183" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="184" spans="8:52">
+      <c r="H184" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I184" s="9">
+        <v>16000</v>
+      </c>
+      <c r="J184" s="9">
+        <v>2</v>
+      </c>
+      <c r="X184" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y184" s="9">
+        <v>16000</v>
+      </c>
+      <c r="Z184" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA184" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB184" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN184" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO184" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP184" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ184" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR184" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV184" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW184" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX184" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY184" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4*</v>
+      </c>
+      <c r="AZ184" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="185" spans="8:52">
+      <c r="H185" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I185" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J185" s="9">
+        <v>2</v>
+      </c>
+      <c r="X185" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y185" s="9">
+        <v>20000</v>
+      </c>
+      <c r="Z185" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA185" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB185" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN185" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO185" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP185" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ185" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR185" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV185" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW185" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX185" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY185" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5*</v>
+      </c>
+      <c r="AZ185" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="186" spans="8:52">
+      <c r="H186" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I186" s="9">
+        <v>40000</v>
+      </c>
+      <c r="J186" s="9">
+        <v>2</v>
+      </c>
+      <c r="X186" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y186" s="9">
+        <v>40000</v>
+      </c>
+      <c r="Z186" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA186" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB186" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN186" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO186" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP186" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ186" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR186" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV186" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW186" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX186" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY186" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4*</v>
+      </c>
+      <c r="AZ186" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="187" spans="40:52">
+      <c r="AN187" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO187" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP187" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ187" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR187" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV187" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW187" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX187" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY187" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4*</v>
+      </c>
+      <c r="AZ187" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Бриз</v>
+      </c>
+    </row>
+    <row r="188" spans="2:52">
+      <c r="B188" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN188" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO188" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP188" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ188" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR188" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV188" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW188" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX188" s="26">
+        <v>1</v>
+      </c>
+      <c r="AY188" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5*</v>
+      </c>
+      <c r="AZ188" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Волна</v>
+      </c>
+    </row>
+    <row r="189" spans="40:44">
+      <c r="AN189" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO189" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP189" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ189" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR189" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="3:44">
+      <c r="C190" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN190" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO190" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP190" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ190" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR190" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="3:44">
+      <c r="C191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D191" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN191" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO191" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP191" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ191" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR191" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" spans="3:44">
+      <c r="C192" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN192" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO192" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP192" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ192" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR192" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="3:44">
+      <c r="C193" t="s">
+        <v>98</v>
+      </c>
+      <c r="D193" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN193" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO193" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP193" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ193" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR193" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="4:44">
+      <c r="D194" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN194" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO194" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP194" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ194" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR194" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:44">
+      <c r="A195" s="1">
+        <v>13</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="AN195" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO195" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP195" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ195" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR195" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" ht="18" customHeight="1" spans="1:44">
+      <c r="A196" s="1"/>
+      <c r="B196" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="AN196" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO196" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP196" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ196" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR196" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" ht="18" customHeight="1" spans="4:44">
+      <c r="D197" s="1"/>
+      <c r="AN197" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO197" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP197" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ197" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR197" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" ht="18" customHeight="1" spans="40:44">
+      <c r="AN198" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO198" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP198" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ198" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR198" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" ht="18" customHeight="1" spans="40:44">
+      <c r="AN199" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO199" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP199" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ199" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR199" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" ht="18" customHeight="1" spans="40:44">
+      <c r="AN200" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO200" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP200" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ200" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR200" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" ht="18" customHeight="1" spans="40:44">
+      <c r="AN201" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO201" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP201" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ201" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR201" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="40:44">
+      <c r="AN202" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO202" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP202" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ202" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR202" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="2:44">
+      <c r="B203" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN203" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO203" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP203" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ203" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR203" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="40:44">
+      <c r="AN204" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO204" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP204" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ204" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR204" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="5:44">
+      <c r="E205" t="s">
+        <v>85</v>
+      </c>
+      <c r="F205" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN205" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO205" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP205" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ205" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR205" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="206" spans="5:44">
+      <c r="E206" t="s">
+        <v>89</v>
+      </c>
+      <c r="F206" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN206" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO206" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP206" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ206" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR206" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="40:44">
+      <c r="AN207" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO207" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP207" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ207" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR207" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="208" spans="40:44">
+      <c r="AN208" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO208" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP208" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ208" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR208" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="5:12">
+      <c r="E210" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="AN176" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO176" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP176" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ176" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR176" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" ht="18" customHeight="1" spans="4:44">
-      <c r="D177" s="1"/>
-      <c r="AN177" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO177" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP177" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ177" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR177" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" ht="18" customHeight="1" spans="40:44">
-      <c r="AN178" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO178" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP178" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ178" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR178" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" ht="18" customHeight="1" spans="40:44">
-      <c r="AN179" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO179" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP179" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ179" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR179" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" ht="18" customHeight="1" spans="40:44">
-      <c r="AN180" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO180" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP180" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ180" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR180" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" ht="18" customHeight="1" spans="40:44">
-      <c r="AN181" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO181" s="9" t="s">
+      <c r="F210" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G210" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I210" t="s">
+        <v>89</v>
+      </c>
+      <c r="J210" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="K210" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="L210" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="4:12">
+      <c r="D211" t="s">
+        <v>42</v>
+      </c>
+      <c r="E211" s="45">
+        <v>0</v>
+      </c>
+      <c r="F211" s="45">
+        <v>0</v>
+      </c>
+      <c r="G211" s="46">
+        <v>0</v>
+      </c>
+      <c r="J211" s="45">
+        <v>0</v>
+      </c>
+      <c r="K211" s="45">
+        <v>0</v>
+      </c>
+      <c r="L211" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="5:12">
+      <c r="E212" s="47">
+        <v>0</v>
+      </c>
+      <c r="F212" s="47">
+        <v>1</v>
+      </c>
+      <c r="G212" s="48">
+        <v>0</v>
+      </c>
+      <c r="J212" s="47">
+        <v>0</v>
+      </c>
+      <c r="K212" s="47">
+        <v>1</v>
+      </c>
+      <c r="L212" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="5:12">
+      <c r="E213" s="47">
+        <v>1</v>
+      </c>
+      <c r="F213" s="47">
+        <v>0</v>
+      </c>
+      <c r="G213" s="48">
+        <v>1</v>
+      </c>
+      <c r="J213" s="47">
+        <v>1</v>
+      </c>
+      <c r="K213" s="47">
+        <v>0</v>
+      </c>
+      <c r="L213" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="5:12">
+      <c r="E214" s="47">
+        <v>1</v>
+      </c>
+      <c r="F214" s="47">
+        <v>1</v>
+      </c>
+      <c r="G214" s="48">
+        <v>1</v>
+      </c>
+      <c r="J214" s="47">
+        <v>1</v>
+      </c>
+      <c r="K214" s="47">
+        <v>1</v>
+      </c>
+      <c r="L214" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="1">
+        <v>14</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7">
+      <c r="E222" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7">
+      <c r="E223" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G223" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7">
+      <c r="E224" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AP181" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ181" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR181" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="40:44">
-      <c r="AN182" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO182" s="9" t="s">
+      <c r="F224" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7">
+      <c r="E225" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G225" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7">
+      <c r="E226" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G226" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7">
+      <c r="E227" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AP182" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ182" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR182" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="2:44">
-      <c r="B183" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN183" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO183" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP183" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ183" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR183" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="40:44">
-      <c r="AN184" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO184" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP184" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ184" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR184" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="5:44">
-      <c r="E185" t="s">
-        <v>87</v>
-      </c>
-      <c r="F185" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN185" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO185" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP185" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ185" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR185" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="5:44">
-      <c r="E186" t="s">
-        <v>93</v>
-      </c>
-      <c r="F186" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN186" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO186" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP186" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ186" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR186" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="40:44">
-      <c r="AN187" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO187" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP187" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ187" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR187" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="40:44">
-      <c r="AN188" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO188" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP188" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ188" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR188" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="5:12">
-      <c r="E190" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F190" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="G190" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="I190" t="s">
-        <v>93</v>
-      </c>
-      <c r="J190" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="L190" s="42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="4:12">
-      <c r="D191" t="s">
-        <v>42</v>
-      </c>
-      <c r="E191" s="43">
-        <v>0</v>
-      </c>
-      <c r="F191" s="43">
-        <v>0</v>
-      </c>
-      <c r="G191" s="44">
-        <v>0</v>
-      </c>
-      <c r="J191" s="43">
-        <v>0</v>
-      </c>
-      <c r="K191" s="43">
-        <v>0</v>
-      </c>
-      <c r="L191" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="5:12">
-      <c r="E192" s="45">
-        <v>0</v>
-      </c>
-      <c r="F192" s="45">
-        <v>1</v>
-      </c>
-      <c r="G192" s="46">
-        <v>0</v>
-      </c>
-      <c r="J192" s="45">
-        <v>0</v>
-      </c>
-      <c r="K192" s="45">
-        <v>1</v>
-      </c>
-      <c r="L192" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="5:12">
-      <c r="E193" s="45">
-        <v>1</v>
-      </c>
-      <c r="F193" s="45">
-        <v>0</v>
-      </c>
-      <c r="G193" s="46">
-        <v>1</v>
-      </c>
-      <c r="J193" s="45">
-        <v>1</v>
-      </c>
-      <c r="K193" s="45">
-        <v>0</v>
-      </c>
-      <c r="L193" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="5:12">
-      <c r="E194" s="45">
-        <v>1</v>
-      </c>
-      <c r="F194" s="45">
-        <v>1</v>
-      </c>
-      <c r="G194" s="46">
-        <v>1</v>
-      </c>
-      <c r="J194" s="45">
-        <v>1</v>
-      </c>
-      <c r="K194" s="45">
-        <v>1</v>
-      </c>
-      <c r="L194" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="A198" s="1">
-        <v>14</v>
-      </c>
-      <c r="B198" s="3" t="s">
+      <c r="F227" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7">
+      <c r="E228" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G228" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="2" t="s">
+    </row>
+    <row r="233" spans="5:12">
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="4:12">
+      <c r="D234" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="4:12">
+      <c r="D235" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="2" t="s">
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="4:12">
+      <c r="D236" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="202" spans="5:7">
-      <c r="E202" s="12" t="s">
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>15</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="239" spans="4:10">
+      <c r="D239" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E239" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F239" s="49"/>
+      <c r="G239" s="49"/>
+      <c r="H239" s="49"/>
+      <c r="I239" s="49"/>
+      <c r="J239" s="49"/>
+    </row>
+    <row r="240" spans="4:10">
+      <c r="D240" s="49"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="49"/>
+      <c r="G240" s="49"/>
+      <c r="H240" s="49"/>
+      <c r="I240" s="49"/>
+      <c r="J240" s="49"/>
+    </row>
+    <row r="241" spans="4:10">
+      <c r="D241" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E241" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F241" s="49"/>
+      <c r="G241" s="49"/>
+      <c r="H241" s="49"/>
+      <c r="I241" s="49"/>
+      <c r="J241" s="49"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>16</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="246" spans="3:14">
+      <c r="C246" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D246" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E246" s="49"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="49"/>
+      <c r="I246" s="49"/>
+      <c r="J246" s="49"/>
+      <c r="K246" s="49"/>
+      <c r="L246" s="49"/>
+      <c r="M246" s="49"/>
+      <c r="N246" s="50"/>
+    </row>
+    <row r="247" spans="3:14">
+      <c r="C247" s="50"/>
+      <c r="D247" s="50"/>
+      <c r="E247" s="50"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="50"/>
+      <c r="H247" s="50"/>
+      <c r="I247" s="50"/>
+      <c r="J247" s="50"/>
+      <c r="K247" s="50"/>
+      <c r="L247" s="50"/>
+      <c r="M247" s="50"/>
+      <c r="N247" s="50"/>
+    </row>
+    <row r="248" spans="3:14">
+      <c r="C248" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D248" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E248" s="49"/>
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
+      <c r="H248" s="49"/>
+      <c r="I248" s="49"/>
+      <c r="J248" s="49"/>
+      <c r="K248" s="50"/>
+      <c r="L248" s="50"/>
+      <c r="M248" s="50"/>
+      <c r="N248" s="50"/>
+    </row>
+    <row r="252" s="1" customFormat="1" spans="1:2">
+      <c r="A252" s="1">
+        <v>17</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>18</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="11"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>19</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="37"/>
+    </row>
+    <row r="278" spans="3:9">
+      <c r="C278" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G278" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F202" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G202" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="5:7">
-      <c r="E203" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G203" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7">
-      <c r="E204" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F204" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G204" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7">
-      <c r="E205" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G205" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="5:7">
-      <c r="E206" s="9" t="s">
+      <c r="H278" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I278" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="279" spans="3:9">
+      <c r="C279" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D279" s="9">
+        <v>15000</v>
+      </c>
+      <c r="E279" s="9">
+        <v>1</v>
+      </c>
+      <c r="F279" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G279" s="9" t="str">
+        <f>IF(E279=1,"*4","*5")</f>
+        <v>*4</v>
+      </c>
+      <c r="H279" s="51" t="str">
+        <f>IF(G279="*4","БРИЗ","ВОЛНА")</f>
+        <v>БРИЗ</v>
+      </c>
+      <c r="I279" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="280" spans="3:9">
+      <c r="C280" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F206" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G206" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="5:7">
-      <c r="E207" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G207" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="5:7">
-      <c r="E208" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F208" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G208" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="5:12">
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="4:12">
-      <c r="D214" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-    </row>
-    <row r="215" spans="4:12">
-      <c r="D215" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-    </row>
-    <row r="216" spans="4:12">
-      <c r="D216" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
-        <v>15</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="219" spans="4:10">
-      <c r="D219" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E219" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="F219" s="50"/>
-      <c r="G219" s="50"/>
-      <c r="H219" s="50"/>
-      <c r="I219" s="50"/>
-      <c r="J219" s="50"/>
-    </row>
-    <row r="220" spans="4:10">
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
-      <c r="F220" s="50"/>
-      <c r="G220" s="50"/>
-      <c r="H220" s="50"/>
-      <c r="I220" s="50"/>
-      <c r="J220" s="50"/>
-    </row>
-    <row r="221" spans="4:10">
-      <c r="D221" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F221" s="50"/>
-      <c r="G221" s="50"/>
-      <c r="H221" s="50"/>
-      <c r="I221" s="50"/>
-      <c r="J221" s="50"/>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>16</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="3:14">
-      <c r="C226" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="D226" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="E226" s="51"/>
-      <c r="F226" s="51"/>
-      <c r="G226" s="51"/>
-      <c r="H226" s="51"/>
-      <c r="I226" s="51"/>
-      <c r="J226" s="51"/>
-      <c r="K226" s="51"/>
-      <c r="L226" s="51"/>
-      <c r="M226" s="51"/>
-      <c r="N226" s="52"/>
-    </row>
-    <row r="227" spans="3:14">
-      <c r="C227" s="52"/>
-      <c r="D227" s="52"/>
-      <c r="E227" s="52"/>
-      <c r="F227" s="52"/>
-      <c r="G227" s="52"/>
-      <c r="H227" s="52"/>
-      <c r="I227" s="52"/>
-      <c r="J227" s="52"/>
-      <c r="K227" s="52"/>
-      <c r="L227" s="52"/>
-      <c r="M227" s="52"/>
-      <c r="N227" s="52"/>
-    </row>
-    <row r="228" spans="3:14">
-      <c r="C228" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D228" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E228" s="51"/>
-      <c r="F228" s="51"/>
-      <c r="G228" s="51"/>
-      <c r="H228" s="51"/>
-      <c r="I228" s="51"/>
-      <c r="J228" s="51"/>
-      <c r="K228" s="52"/>
-      <c r="L228" s="52"/>
-      <c r="M228" s="52"/>
-      <c r="N228" s="52"/>
-    </row>
-    <row r="232" s="1" customFormat="1" spans="1:2">
-      <c r="A232" s="1">
-        <v>17</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>18</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" s="11"/>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1">
-        <v>19</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="4:4">
-      <c r="D257" s="41"/>
-    </row>
-    <row r="258" spans="3:9">
-      <c r="C258" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F258" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G258" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H258" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="I258" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="259" spans="3:9">
-      <c r="C259" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E259" s="9">
-        <v>1</v>
-      </c>
-      <c r="F259" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="G259" s="9" t="str">
-        <f>IF(E259=1,"*4","*5")</f>
+      <c r="D280" s="9">
+        <v>30000</v>
+      </c>
+      <c r="E280" s="9">
+        <v>1</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G280" s="9" t="str">
+        <f t="shared" ref="G280:G289" si="2">IF(E280=1,"*4","*5")</f>
         <v>*4</v>
       </c>
-      <c r="H259" s="53" t="str">
-        <f>IF(G259="*4","БРИЗ","ВОЛНА")</f>
+      <c r="H280" s="51" t="str">
+        <f t="shared" ref="H280:H289" si="3">IF(G280="*4","БРИЗ","ВОЛНА")</f>
         <v>БРИЗ</v>
       </c>
-      <c r="I259" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="260" spans="3:9">
-      <c r="C260" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D260" s="9">
-        <v>15000</v>
-      </c>
-      <c r="E260" s="9">
-        <v>1</v>
-      </c>
-      <c r="F260" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G260" s="9" t="str">
-        <f t="shared" ref="G260:G269" si="2">IF(E260=1,"*4","*5")</f>
-        <v>*4</v>
-      </c>
-      <c r="H260" s="53" t="str">
-        <f t="shared" ref="H260:H269" si="3">IF(G260="*4","БРИЗ","ВОЛНА")</f>
-        <v>БРИЗ</v>
-      </c>
-      <c r="I260" s="9" t="str">
-        <f t="shared" ref="I260:I269" si="4">IF(F260="W","1/12","1/5")</f>
+      <c r="I280" s="9" t="str">
+        <f t="shared" ref="I280:I289" si="4">IF(F280="W","1/12","1/5")</f>
         <v>1/5</v>
       </c>
     </row>
-    <row r="261" spans="3:9">
-      <c r="C261" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D261" s="9">
-        <v>30000</v>
-      </c>
-      <c r="E261" s="9">
-        <v>1</v>
-      </c>
-      <c r="F261" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G261" s="9" t="str">
+    <row r="281" spans="3:9">
+      <c r="C281" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D281" s="9">
+        <v>60000</v>
+      </c>
+      <c r="E281" s="9">
+        <v>1</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G281" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*4</v>
       </c>
-      <c r="H261" s="53" t="str">
+      <c r="H281" s="51" t="str">
         <f t="shared" si="3"/>
         <v>БРИЗ</v>
       </c>
-      <c r="I261" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="262" spans="3:9">
-      <c r="C262" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D262" s="9">
-        <v>60000</v>
-      </c>
-      <c r="E262" s="9">
-        <v>1</v>
-      </c>
-      <c r="F262" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G262" s="9" t="str">
+      <c r="I281" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="3:9">
+      <c r="C282" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D282" s="9">
+        <v>17000</v>
+      </c>
+      <c r="E282" s="9">
+        <v>1</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G282" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*4</v>
       </c>
-      <c r="H262" s="53" t="str">
+      <c r="H282" s="51" t="str">
         <f t="shared" si="3"/>
         <v>БРИЗ</v>
       </c>
-      <c r="I262" s="9" t="str">
+      <c r="I282" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1/12</v>
       </c>
     </row>
-    <row r="263" spans="3:9">
-      <c r="C263" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D263" s="9">
-        <v>17000</v>
-      </c>
-      <c r="E263" s="9">
-        <v>1</v>
-      </c>
-      <c r="F263" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G263" s="9" t="str">
+    <row r="283" spans="3:9">
+      <c r="C283" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D283" s="9">
+        <v>23000</v>
+      </c>
+      <c r="E283" s="9">
+        <v>1</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G283" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*4</v>
       </c>
-      <c r="H263" s="53" t="str">
+      <c r="H283" s="51" t="str">
         <f t="shared" si="3"/>
         <v>БРИЗ</v>
       </c>
-      <c r="I263" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="264" spans="3:9">
-      <c r="C264" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D264" s="9">
-        <v>23000</v>
-      </c>
-      <c r="E264" s="9">
-        <v>2</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G264" s="9" t="str">
+      <c r="I283" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="3:9">
+      <c r="C284" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D284" s="9">
+        <v>25000</v>
+      </c>
+      <c r="E284" s="9">
+        <v>2</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G284" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*5</v>
       </c>
-      <c r="H264" s="53" t="str">
+      <c r="H284" s="51" t="str">
         <f t="shared" si="3"/>
         <v>ВОЛНА</v>
       </c>
-      <c r="I264" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="265" spans="3:9">
-      <c r="C265" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D265" s="9">
-        <v>25000</v>
-      </c>
-      <c r="E265" s="9">
-        <v>2</v>
-      </c>
-      <c r="F265" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G265" s="9" t="str">
+      <c r="I284" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285" spans="3:9">
+      <c r="C285" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D285" s="9">
+        <v>32000</v>
+      </c>
+      <c r="E285" s="9">
+        <v>2</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G285" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*5</v>
       </c>
-      <c r="H265" s="53" t="str">
+      <c r="H285" s="51" t="str">
         <f t="shared" si="3"/>
         <v>ВОЛНА</v>
       </c>
-      <c r="I265" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="266" spans="3:9">
-      <c r="C266" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D266" s="9">
-        <v>32000</v>
-      </c>
-      <c r="E266" s="9">
-        <v>2</v>
-      </c>
-      <c r="F266" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G266" s="9" t="str">
+      <c r="I285" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="3:9">
+      <c r="C286" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D286" s="9">
+        <v>16000</v>
+      </c>
+      <c r="E286" s="9">
+        <v>2</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G286" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*5</v>
       </c>
-      <c r="H266" s="53" t="str">
+      <c r="H286" s="51" t="str">
         <f t="shared" si="3"/>
         <v>ВОЛНА</v>
       </c>
-      <c r="I266" s="9" t="str">
+      <c r="I286" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1/12</v>
       </c>
     </row>
-    <row r="267" spans="3:9">
-      <c r="C267" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D267" s="9">
-        <v>16000</v>
-      </c>
-      <c r="E267" s="9">
-        <v>2</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G267" s="9" t="str">
+    <row r="287" spans="3:9">
+      <c r="C287" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D287" s="9">
+        <v>20000</v>
+      </c>
+      <c r="E287" s="9">
+        <v>2</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G287" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*5</v>
       </c>
-      <c r="H267" s="53" t="str">
+      <c r="H287" s="51" t="str">
         <f t="shared" si="3"/>
         <v>ВОЛНА</v>
       </c>
-      <c r="I267" s="9" t="str">
+      <c r="I287" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1/12</v>
       </c>
     </row>
-    <row r="268" spans="3:9">
-      <c r="C268" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D268" s="9">
-        <v>20000</v>
-      </c>
-      <c r="E268" s="9">
-        <v>2</v>
-      </c>
-      <c r="F268" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G268" s="9" t="str">
+    <row r="288" spans="3:9">
+      <c r="C288" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D288" s="9">
+        <v>40000</v>
+      </c>
+      <c r="E288" s="9">
+        <v>2</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G288" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*5</v>
       </c>
-      <c r="H268" s="53" t="str">
+      <c r="H288" s="51" t="str">
         <f t="shared" si="3"/>
         <v>ВОЛНА</v>
       </c>
-      <c r="I268" s="9" t="str">
+      <c r="I288" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1/5</v>
       </c>
     </row>
-    <row r="269" spans="3:9">
-      <c r="C269" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D269" s="9">
-        <v>40000</v>
-      </c>
-      <c r="E269" s="9">
-        <v>1</v>
-      </c>
-      <c r="F269" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G269" s="9" t="str">
+    <row r="289" spans="3:9">
+      <c r="C289" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D289" s="9">
+        <v>17000</v>
+      </c>
+      <c r="E289" s="9">
+        <v>1</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G289" s="9" t="str">
         <f t="shared" si="2"/>
         <v>*4</v>
       </c>
-      <c r="H269" s="53" t="str">
+      <c r="H289" s="51" t="str">
         <f t="shared" si="3"/>
         <v>БРИЗ</v>
       </c>
-      <c r="I269" s="9" t="str">
+      <c r="I289" s="9" t="str">
         <f t="shared" si="4"/>
         <v>1/5</v>
-      </c>
-    </row>
-    <row r="270" spans="4:4">
-      <c r="D270" s="9">
-        <v>17000</v>
       </c>
     </row>
   </sheetData>
